--- a/02-22-26 to 02-28-26 Milwaukee Schedule.xlsx
+++ b/02-22-26 to 02-28-26 Milwaukee Schedule.xlsx
@@ -509,8 +509,16 @@
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kim </t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Bags 5-6</t>
+        </is>
+      </c>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -536,24 +544,64 @@
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DJ </t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Bags 1-2</t>
+        </is>
+      </c>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DJ </t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Bags 1-2</t>
+        </is>
+      </c>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kim </t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>Bags 5-7</t>
+        </is>
+      </c>
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DJ </t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>Bags 1-3</t>
+        </is>
+      </c>
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="inlineStr"/>
-      <c r="V4" t="inlineStr"/>
-      <c r="W4" t="inlineStr"/>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kim </t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>Bags 5-7</t>
+        </is>
+      </c>
       <c r="X4" t="inlineStr"/>
       <c r="Y4" t="inlineStr"/>
     </row>
@@ -563,24 +611,56 @@
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ian </t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Bag 8</t>
+        </is>
+      </c>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ian </t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Bag 8</t>
+        </is>
+      </c>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ian </t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>Bags 9</t>
+        </is>
+      </c>
       <c r="P5" t="inlineStr"/>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr"/>
       <c r="S5" t="inlineStr"/>
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="inlineStr"/>
-      <c r="V5" t="inlineStr"/>
-      <c r="W5" t="inlineStr"/>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ian </t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>Bag 8</t>
+        </is>
+      </c>
       <c r="X5" t="inlineStr"/>
       <c r="Y5" t="inlineStr"/>
     </row>
@@ -590,24 +670,56 @@
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Katherine </t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Bag 4</t>
+        </is>
+      </c>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Katherine </t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Bag 4</t>
+        </is>
+      </c>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr"/>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Katherine </t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>Bag 4</t>
+        </is>
+      </c>
       <c r="P6" t="inlineStr"/>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr"/>
       <c r="S6" t="inlineStr"/>
       <c r="T6" t="inlineStr"/>
       <c r="U6" t="inlineStr"/>
-      <c r="V6" t="inlineStr"/>
-      <c r="W6" t="inlineStr"/>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Katherine </t>
+        </is>
+      </c>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>Bag 4</t>
+        </is>
+      </c>
       <c r="X6" t="inlineStr"/>
       <c r="Y6" t="inlineStr"/>
     </row>

--- a/02-22-26 to 02-28-26 Milwaukee Schedule.xlsx
+++ b/02-22-26 to 02-28-26 Milwaukee Schedule.xlsx
@@ -1163,7 +1163,11 @@
           <t>Celina</t>
         </is>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr">
         <is>
@@ -1401,8 +1405,7 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Driver,
-Santa Fe</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="L19" t="inlineStr"/>
@@ -3445,7 +3448,7 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>No cars available, Equip</t>
+          <t>Santa Fe available, Equip</t>
         </is>
       </c>
       <c r="L55" t="inlineStr"/>

--- a/02-22-26 to 02-28-26 Milwaukee Schedule.xlsx
+++ b/02-22-26 to 02-28-26 Milwaukee Schedule.xlsx
@@ -1955,7 +1955,11 @@
           <t>Paul</t>
         </is>
       </c>
-      <c r="O27" t="inlineStr"/>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>Until 11:30</t>
+        </is>
+      </c>
       <c r="P27" t="inlineStr"/>
       <c r="Q27" t="inlineStr"/>
       <c r="R27" t="inlineStr"/>

--- a/02-22-26 to 02-28-26 Milwaukee Schedule.xlsx
+++ b/02-22-26 to 02-28-26 Milwaukee Schedule.xlsx
@@ -1176,7 +1176,7 @@
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>Anamaria</t>
+          <t>Andrew</t>
         </is>
       </c>
       <c r="O16" t="inlineStr"/>
@@ -1254,10 +1254,14 @@
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>Andrew</t>
-        </is>
-      </c>
-      <c r="O17" t="inlineStr"/>
+          <t>Carlie</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>Rx</t>
+        </is>
+      </c>
       <c r="P17" t="inlineStr"/>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1331,14 +1335,10 @@
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>Carlie</t>
-        </is>
-      </c>
-      <c r="O18" t="inlineStr">
-        <is>
-          <t>Rx</t>
-        </is>
-      </c>
+          <t>Charletta</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr"/>
       <c r="P18" t="inlineStr"/>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1416,10 +1416,14 @@
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>Charletta</t>
-        </is>
-      </c>
-      <c r="O19" t="inlineStr"/>
+          <t>DJ</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>Supv Rx</t>
+        </is>
+      </c>
       <c r="P19" t="inlineStr"/>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1492,14 +1496,10 @@
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="O20" t="inlineStr">
-        <is>
-          <t>Supv Rx</t>
-        </is>
-      </c>
+          <t>Greg</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr"/>
       <c r="P20" t="inlineStr"/>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1577,10 +1577,14 @@
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>Greg</t>
-        </is>
-      </c>
-      <c r="O21" t="inlineStr"/>
+          <t>Ian</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>After Aurora</t>
+        </is>
+      </c>
       <c r="P21" t="inlineStr"/>
       <c r="Q21" t="inlineStr">
         <is>
@@ -1636,14 +1640,10 @@
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>Ian</t>
-        </is>
-      </c>
-      <c r="O22" t="inlineStr">
-        <is>
-          <t>After Aurora</t>
-        </is>
-      </c>
+          <t>Leyna</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr"/>
       <c r="P22" t="inlineStr"/>
       <c r="Q22" t="inlineStr">
         <is>
@@ -1711,7 +1711,7 @@
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>Leyna</t>
+          <t>Mariah</t>
         </is>
       </c>
       <c r="O23" t="inlineStr"/>
@@ -1775,7 +1775,7 @@
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>Mariah</t>
+          <t>Matthew</t>
         </is>
       </c>
       <c r="O24" t="inlineStr"/>
@@ -1830,7 +1830,7 @@
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>Matthew</t>
+          <t>Monica</t>
         </is>
       </c>
       <c r="O25" t="inlineStr"/>
@@ -1893,10 +1893,14 @@
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>Monica</t>
-        </is>
-      </c>
-      <c r="O26" t="inlineStr"/>
+          <t>Paul</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>Until 11:30</t>
+        </is>
+      </c>
       <c r="P26" t="inlineStr"/>
       <c r="Q26" t="inlineStr">
         <is>
@@ -1952,14 +1956,10 @@
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>Paul</t>
-        </is>
-      </c>
-      <c r="O27" t="inlineStr">
-        <is>
-          <t>Until 11:30</t>
-        </is>
-      </c>
+          <t>Sonia</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr"/>
       <c r="P27" t="inlineStr"/>
       <c r="Q27" t="inlineStr"/>
       <c r="R27" t="inlineStr"/>
@@ -2011,7 +2011,7 @@
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Zakiyah</t>
         </is>
       </c>
       <c r="O28" t="inlineStr"/>
@@ -2055,16 +2055,8 @@
       </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>15)</t>
-        </is>
-      </c>
-      <c r="N29" t="inlineStr">
-        <is>
-          <t>Zakiyah</t>
-        </is>
-      </c>
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="inlineStr"/>
       <c r="O29" t="inlineStr"/>
       <c r="P29" t="inlineStr"/>
       <c r="Q29" t="inlineStr"/>
@@ -2146,7 +2138,11 @@
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
       <c r="M31" t="inlineStr"/>
-      <c r="N31" t="inlineStr"/>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>6:00 AM START</t>
+        </is>
+      </c>
       <c r="O31" t="inlineStr"/>
       <c r="P31" t="inlineStr"/>
       <c r="Q31" t="inlineStr"/>
@@ -2191,7 +2187,7 @@
       <c r="M32" t="inlineStr"/>
       <c r="N32" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>MODAS-SCAN</t>
         </is>
       </c>
       <c r="O32" t="inlineStr"/>
@@ -2250,7 +2246,7 @@
       <c r="M33" t="inlineStr"/>
       <c r="N33" t="inlineStr">
         <is>
-          <t>MODAS-SCAN</t>
+          <t>AURORA OUTPATIENT RX #1120, FRANKLIN</t>
         </is>
       </c>
       <c r="O33" t="inlineStr"/>
@@ -2302,15 +2298,19 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>Anamaria</t>
-        </is>
-      </c>
-      <c r="K34" t="inlineStr"/>
+          <t>Andrew</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>work w/ Leyna</t>
+        </is>
+      </c>
       <c r="L34" t="inlineStr"/>
       <c r="M34" t="inlineStr"/>
       <c r="N34" t="inlineStr">
         <is>
-          <t>AURORA OUTPATIENT RX #1120, FRANKLIN</t>
+          <t>9200 W LOOMIS RD SUITE 210</t>
         </is>
       </c>
       <c r="O34" t="inlineStr"/>
@@ -2357,19 +2357,20 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>Andrew</t>
+          <t>Carlie</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>work w/ Leyna</t>
+          <t>Driver,
+Red Camry</t>
         </is>
       </c>
       <c r="L35" t="inlineStr"/>
       <c r="M35" t="inlineStr"/>
       <c r="N35" t="inlineStr">
         <is>
-          <t>9200 W LOOMIS RD SUITE 210</t>
+          <t>https://goo.gl/maps/PNn7y7HSYHT2</t>
         </is>
       </c>
       <c r="O35" t="inlineStr"/>
@@ -2412,22 +2413,13 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>Carlie</t>
-        </is>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>Driver,
-Red Camry</t>
-        </is>
-      </c>
+          <t>Charletta</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
       <c r="M36" t="inlineStr"/>
-      <c r="N36" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/PNn7y7HSYHT2</t>
-        </is>
-      </c>
+      <c r="N36" t="inlineStr"/>
       <c r="O36" t="inlineStr"/>
       <c r="P36" t="inlineStr"/>
       <c r="Q36" t="inlineStr">
@@ -2472,14 +2464,30 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Charletta</t>
-        </is>
-      </c>
-      <c r="K37" t="inlineStr"/>
+          <t>Leyna</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>Trainer</t>
+        </is>
+      </c>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr"/>
-      <c r="N37" t="inlineStr"/>
-      <c r="O37" t="inlineStr"/>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>Ian</t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>Wht Camry available, Equip</t>
+        </is>
+      </c>
       <c r="P37" t="inlineStr"/>
       <c r="Q37" t="inlineStr">
         <is>
@@ -2515,30 +2523,14 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>Leyna</t>
-        </is>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>Trainer</t>
-        </is>
-      </c>
+          <t>Paul</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="N38" t="inlineStr">
-        <is>
-          <t>Ian</t>
-        </is>
-      </c>
-      <c r="O38" t="inlineStr">
-        <is>
-          <t>Wht Camry available, Equip</t>
-        </is>
-      </c>
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="inlineStr"/>
+      <c r="O38" t="inlineStr"/>
       <c r="P38" t="inlineStr"/>
       <c r="Q38" t="inlineStr">
         <is>
@@ -2591,10 +2583,15 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Paul</t>
-        </is>
-      </c>
-      <c r="K39" t="inlineStr"/>
+          <t>Sue</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>Driver,
+Wht Camry</t>
+        </is>
+      </c>
       <c r="L39" t="inlineStr"/>
       <c r="M39" t="inlineStr"/>
       <c r="N39" t="inlineStr"/>
@@ -2650,18 +2647,21 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>Sue</t>
+          <t>Annette</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>Driver,
-Wht Camry</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="L40" t="inlineStr"/>
       <c r="M40" t="inlineStr"/>
-      <c r="N40" t="inlineStr"/>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>5:30 AM START</t>
+        </is>
+      </c>
       <c r="O40" t="inlineStr"/>
       <c r="P40" t="inlineStr"/>
       <c r="Q40" t="inlineStr">
@@ -2708,7 +2708,7 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>Annette</t>
+          <t>Dan</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
@@ -2720,7 +2720,7 @@
       <c r="M41" t="inlineStr"/>
       <c r="N41" t="inlineStr">
         <is>
-          <t>5:30 AM START</t>
+          <t xml:space="preserve">DC5-FINANCIAL  </t>
         </is>
       </c>
       <c r="O41" t="inlineStr"/>
@@ -2763,7 +2763,7 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>Dan</t>
+          <t>Katie</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
@@ -2775,7 +2775,7 @@
       <c r="M42" t="inlineStr"/>
       <c r="N42" t="inlineStr">
         <is>
-          <t xml:space="preserve">DC5-FINANCIAL  </t>
+          <t>ROTE OIL #10 MUKWONAGO - ROCHESTER</t>
         </is>
       </c>
       <c r="O42" t="inlineStr"/>
@@ -2822,7 +2822,7 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>Katie</t>
+          <t>Madison</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
@@ -2834,7 +2834,7 @@
       <c r="M43" t="inlineStr"/>
       <c r="N43" t="inlineStr">
         <is>
-          <t>ROTE OIL #10 MUKWONAGO - ROCHESTER</t>
+          <t>1060 N ROCHESTER ST</t>
         </is>
       </c>
       <c r="O43" t="inlineStr"/>
@@ -2885,7 +2885,7 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>Madison</t>
+          <t>Mai</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
@@ -2897,7 +2897,7 @@
       <c r="M44" t="inlineStr"/>
       <c r="N44" t="inlineStr">
         <is>
-          <t>1060 N ROCHESTER ST</t>
+          <t>https://goo.gl/maps/dmvR5bTHLs1Cbjcr5</t>
         </is>
       </c>
       <c r="O44" t="inlineStr"/>
@@ -2948,7 +2948,7 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Mai</t>
+          <t>Taya</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
@@ -2960,7 +2960,7 @@
       <c r="M45" t="inlineStr"/>
       <c r="N45" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/dmvR5bTHLs1Cbjcr5</t>
+          <t>TO FOLLOW</t>
         </is>
       </c>
       <c r="O45" t="inlineStr"/>
@@ -3004,26 +3004,14 @@
       </c>
       <c r="G46" t="inlineStr"/>
       <c r="H46" t="inlineStr"/>
-      <c r="I46" t="inlineStr">
-        <is>
-          <t>14)</t>
-        </is>
-      </c>
-      <c r="J46" t="inlineStr">
-        <is>
-          <t>Taya</t>
-        </is>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr"/>
       <c r="N46" t="inlineStr">
         <is>
-          <t>TO FOLLOW</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="O46" t="inlineStr"/>
@@ -3074,7 +3062,7 @@
       <c r="M47" t="inlineStr"/>
       <c r="N47" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>ROTE OIL #12 MUKWONAGO - (AMOCO) GREENWALD</t>
         </is>
       </c>
       <c r="O47" t="inlineStr"/>
@@ -3119,13 +3107,17 @@
       <c r="G48" t="inlineStr"/>
       <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>7:00 AM START</t>
+        </is>
+      </c>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
       <c r="M48" t="inlineStr"/>
       <c r="N48" t="inlineStr">
         <is>
-          <t>ROTE OIL #12 MUKWONAGO - (AMOCO) GREENWALD</t>
+          <t>909 GREENWALD CT</t>
         </is>
       </c>
       <c r="O48" t="inlineStr"/>
@@ -3160,7 +3152,7 @@
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr">
         <is>
-          <t>7:00 AM START</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="K49" t="inlineStr"/>
@@ -3168,7 +3160,7 @@
       <c r="M49" t="inlineStr"/>
       <c r="N49" t="inlineStr">
         <is>
-          <t>909 GREENWALD CT</t>
+          <t>https://goo.gl/maps/ejQSLoz2D8EmzKVq6</t>
         </is>
       </c>
       <c r="O49" t="inlineStr"/>
@@ -3199,7 +3191,7 @@
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>CONCORD GENERAL STORE, OCONOMOWOC</t>
         </is>
       </c>
       <c r="K50" t="inlineStr"/>
@@ -3207,7 +3199,7 @@
       <c r="M50" t="inlineStr"/>
       <c r="N50" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/ejQSLoz2D8EmzKVq6</t>
+          <t>TO FOLLOW</t>
         </is>
       </c>
       <c r="O50" t="inlineStr"/>
@@ -3255,7 +3247,7 @@
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr">
         <is>
-          <t>CONCORD GENERAL STORE, OCONOMOWOC</t>
+          <t>N6485 COUNTY RD F</t>
         </is>
       </c>
       <c r="K51" t="inlineStr"/>
@@ -3263,7 +3255,7 @@
       <c r="M51" t="inlineStr"/>
       <c r="N51" t="inlineStr">
         <is>
-          <t>TO FOLLOW</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="O51" t="inlineStr"/>
@@ -3306,7 +3298,7 @@
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr">
         <is>
-          <t>N6485 COUNTY RD F</t>
+          <t>https://goo.gl/maps/X4xEoL3zCRA2</t>
         </is>
       </c>
       <c r="K52" t="inlineStr"/>
@@ -3314,7 +3306,7 @@
       <c r="M52" t="inlineStr"/>
       <c r="N52" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>ROTE OIL  #11 MUKWONAGO - (BP) ARROWHEAD</t>
         </is>
       </c>
       <c r="O52" t="inlineStr"/>
@@ -3347,17 +3339,13 @@
       <c r="G53" t="inlineStr"/>
       <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/X4xEoL3zCRA2</t>
-        </is>
-      </c>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
       <c r="M53" t="inlineStr"/>
       <c r="N53" t="inlineStr">
         <is>
-          <t>ROTE OIL  #11 MUKWONAGO - (BP) ARROWHEAD</t>
+          <t>122 ARROWHEAD DR</t>
         </is>
       </c>
       <c r="O53" t="inlineStr"/>
@@ -3385,14 +3373,26 @@
       <c r="F54" t="inlineStr"/>
       <c r="G54" t="inlineStr"/>
       <c r="H54" t="inlineStr"/>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>Ian</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>Santa Fe available, Equip</t>
+        </is>
+      </c>
       <c r="L54" t="inlineStr"/>
       <c r="M54" t="inlineStr"/>
       <c r="N54" t="inlineStr">
         <is>
-          <t>122 ARROWHEAD DR</t>
+          <t>https://goo.gl/maps/7XkTFZtDFDgGBctz7</t>
         </is>
       </c>
       <c r="O54" t="inlineStr"/>
@@ -3440,28 +3440,12 @@
       </c>
       <c r="G55" t="inlineStr"/>
       <c r="H55" t="inlineStr"/>
-      <c r="I55" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="J55" t="inlineStr">
-        <is>
-          <t>Ian</t>
-        </is>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>Santa Fe available, Equip</t>
-        </is>
-      </c>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
       <c r="M55" t="inlineStr"/>
-      <c r="N55" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/7XkTFZtDFDgGBctz7</t>
-        </is>
-      </c>
+      <c r="N55" t="inlineStr"/>
       <c r="O55" t="inlineStr"/>
       <c r="P55" t="inlineStr"/>
       <c r="Q55" t="inlineStr"/>
@@ -3495,9 +3479,21 @@
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="inlineStr"/>
-      <c r="N56" t="inlineStr"/>
-      <c r="O56" t="inlineStr"/>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>Optima available, Equip</t>
+        </is>
+      </c>
       <c r="P56" t="inlineStr"/>
       <c r="Q56" t="inlineStr"/>
       <c r="R56" t="inlineStr">
@@ -3527,24 +3523,24 @@
       <c r="G57" t="inlineStr"/>
       <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>5:30 AM START</t>
+        </is>
+      </c>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
       <c r="M57" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="O57" t="inlineStr">
-        <is>
-          <t>Optima available, Equip</t>
-        </is>
-      </c>
+          <t>Cynthia</t>
+        </is>
+      </c>
+      <c r="O57" t="inlineStr"/>
       <c r="P57" t="inlineStr"/>
       <c r="Q57" t="inlineStr"/>
       <c r="R57" t="inlineStr">
@@ -3580,21 +3576,13 @@
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr">
         <is>
-          <t>5:30 AM START</t>
+          <t xml:space="preserve">DC5-FINANCIAL  </t>
         </is>
       </c>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="N58" t="inlineStr">
-        <is>
-          <t>Cynthia</t>
-        </is>
-      </c>
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="inlineStr"/>
       <c r="O58" t="inlineStr"/>
       <c r="P58" t="inlineStr"/>
       <c r="Q58" t="inlineStr"/>
@@ -3631,7 +3619,7 @@
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr">
         <is>
-          <t xml:space="preserve">DC5-FINANCIAL  </t>
+          <t>ROTE OIL #6 HUBERTUS</t>
         </is>
       </c>
       <c r="K59" t="inlineStr"/>
@@ -3674,13 +3662,17 @@
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr">
         <is>
-          <t>ROTE OIL #6 HUBERTUS</t>
+          <t>1306 HWY 175</t>
         </is>
       </c>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
       <c r="M60" t="inlineStr"/>
-      <c r="N60" t="inlineStr"/>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>5:00 AM OFFICE MEET</t>
+        </is>
+      </c>
       <c r="O60" t="inlineStr"/>
       <c r="P60" t="inlineStr"/>
       <c r="Q60" t="inlineStr"/>
@@ -3713,7 +3705,7 @@
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr">
         <is>
-          <t>1306 HWY 175</t>
+          <t>https://goo.gl/maps/SZRuQ4FHA1cX2ZmC8</t>
         </is>
       </c>
       <c r="K61" t="inlineStr"/>
@@ -3721,7 +3713,7 @@
       <c r="M61" t="inlineStr"/>
       <c r="N61" t="inlineStr">
         <is>
-          <t>5:00 AM OFFICE MEET</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="O61" t="inlineStr"/>
@@ -3768,7 +3760,7 @@
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/SZRuQ4FHA1cX2ZmC8</t>
+          <t xml:space="preserve">TO FOLLOW   </t>
         </is>
       </c>
       <c r="K62" t="inlineStr"/>
@@ -3776,7 +3768,7 @@
       <c r="M62" t="inlineStr"/>
       <c r="N62" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>SCAN-ITEM LEVEL</t>
         </is>
       </c>
       <c r="O62" t="inlineStr"/>
@@ -3823,7 +3815,7 @@
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr">
         <is>
-          <t xml:space="preserve">TO FOLLOW   </t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="K63" t="inlineStr"/>
@@ -3831,7 +3823,7 @@
       <c r="M63" t="inlineStr"/>
       <c r="N63" t="inlineStr">
         <is>
-          <t>SCAN-ITEM LEVEL</t>
+          <t>PICK #888 +RX, WATERTOWN</t>
         </is>
       </c>
       <c r="O63" t="inlineStr"/>
@@ -3862,7 +3854,7 @@
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>ROTE OIL #7 MILWAUKEE</t>
         </is>
       </c>
       <c r="K64" t="inlineStr"/>
@@ -3870,7 +3862,7 @@
       <c r="M64" t="inlineStr"/>
       <c r="N64" t="inlineStr">
         <is>
-          <t>PICK #888 +RX, WATERTOWN</t>
+          <t>624 SOUTH CHURCH STREET</t>
         </is>
       </c>
       <c r="O64" t="inlineStr"/>
@@ -3913,7 +3905,7 @@
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr">
         <is>
-          <t>ROTE OIL #7 MILWAUKEE</t>
+          <t>5931 N 91ST ST</t>
         </is>
       </c>
       <c r="K65" t="inlineStr"/>
@@ -3921,7 +3913,7 @@
       <c r="M65" t="inlineStr"/>
       <c r="N65" t="inlineStr">
         <is>
-          <t>624 SOUTH CHURCH STREET</t>
+          <t>https://goo.gl/maps/tzx1UGc1dZ82</t>
         </is>
       </c>
       <c r="O65" t="inlineStr"/>
@@ -3969,17 +3961,13 @@
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr">
         <is>
-          <t>5931 N 91ST ST</t>
+          <t>https://goo.gl/maps/cw58s7atAhTAGHNd7</t>
         </is>
       </c>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
       <c r="M66" t="inlineStr"/>
-      <c r="N66" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/tzx1UGc1dZ82</t>
-        </is>
-      </c>
+      <c r="N66" t="inlineStr"/>
       <c r="O66" t="inlineStr"/>
       <c r="P66" t="inlineStr"/>
       <c r="Q66" t="inlineStr"/>
@@ -4024,14 +4012,26 @@
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/cw58s7atAhTAGHNd7</t>
+          <t xml:space="preserve">TO FOLLOW      </t>
         </is>
       </c>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
-      <c r="M67" t="inlineStr"/>
-      <c r="N67" t="inlineStr"/>
-      <c r="O67" t="inlineStr"/>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="N67" t="inlineStr">
+        <is>
+          <t>Bri</t>
+        </is>
+      </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="P67" t="inlineStr"/>
       <c r="Q67" t="inlineStr"/>
       <c r="R67" t="inlineStr"/>
@@ -4071,26 +4071,22 @@
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr">
         <is>
-          <t xml:space="preserve">TO FOLLOW      </t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
       <c r="M68" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>Bri</t>
-        </is>
-      </c>
-      <c r="O68" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+          <t>Celina</t>
+        </is>
+      </c>
+      <c r="O68" t="inlineStr"/>
       <c r="P68" t="inlineStr"/>
       <c r="Q68" t="inlineStr"/>
       <c r="R68" t="inlineStr"/>
@@ -4130,22 +4126,27 @@
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>ROTE OIL #8 ELM GROVE</t>
         </is>
       </c>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
       <c r="M69" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>Celina</t>
-        </is>
-      </c>
-      <c r="O69" t="inlineStr"/>
+          <t>Jerry D</t>
+        </is>
+      </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>Driver,
+Santa Fe</t>
+        </is>
+      </c>
       <c r="P69" t="inlineStr"/>
       <c r="Q69" t="inlineStr"/>
       <c r="R69" t="inlineStr"/>
@@ -4185,27 +4186,22 @@
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr">
         <is>
-          <t>ROTE OIL #8 ELM GROVE</t>
+          <t>13395 WATERTOWN PLANK RD</t>
         </is>
       </c>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
       <c r="M70" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>Jerry D</t>
-        </is>
-      </c>
-      <c r="O70" t="inlineStr">
-        <is>
-          <t>Driver,
-Santa Fe</t>
-        </is>
-      </c>
+          <t>Sue</t>
+        </is>
+      </c>
+      <c r="O70" t="inlineStr"/>
       <c r="P70" t="inlineStr"/>
       <c r="Q70" t="inlineStr"/>
       <c r="R70" t="inlineStr"/>
@@ -4241,22 +4237,27 @@
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr">
         <is>
-          <t>13395 WATERTOWN PLANK RD</t>
+          <t>https://goo.gl/maps/5zXAKpcRHDmA17UK9</t>
         </is>
       </c>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
       <c r="M71" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>Sue</t>
-        </is>
-      </c>
-      <c r="O71" t="inlineStr"/>
+          <t>Angela</t>
+        </is>
+      </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>@ Store,
+Rx</t>
+        </is>
+      </c>
       <c r="P71" t="inlineStr"/>
       <c r="Q71" t="inlineStr"/>
       <c r="R71" t="inlineStr"/>
@@ -4304,25 +4305,25 @@
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/5zXAKpcRHDmA17UK9</t>
+          <t xml:space="preserve">TO FOLLOW     </t>
         </is>
       </c>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
       <c r="M72" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t>Angela</t>
+          <t>Ashley P</t>
         </is>
       </c>
       <c r="O72" t="inlineStr">
         <is>
           <t>@ Store,
-Rx</t>
+Supv Rx</t>
         </is>
       </c>
       <c r="P72" t="inlineStr"/>
@@ -4374,25 +4375,25 @@
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr">
         <is>
-          <t xml:space="preserve">TO FOLLOW     </t>
+          <t xml:space="preserve">DC5-FINANCIAL </t>
         </is>
       </c>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
       <c r="M73" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t>Ashley P</t>
+          <t>Eva</t>
         </is>
       </c>
       <c r="O73" t="inlineStr">
         <is>
           <t>@ Store,
-Supv Rx</t>
+Rx</t>
         </is>
       </c>
       <c r="P73" t="inlineStr"/>
@@ -4439,25 +4440,24 @@
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr">
         <is>
-          <t xml:space="preserve">DC5-FINANCIAL </t>
+          <t>ROTE OIL #09 GREENFIELD</t>
         </is>
       </c>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
       <c r="M74" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="N74" t="inlineStr">
         <is>
-          <t>Eva</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>@ Store,
-Rx</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="P74" t="inlineStr"/>
@@ -4496,19 +4496,19 @@
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr">
         <is>
-          <t>ROTE OIL #09 GREENFIELD</t>
+          <t>12345 W LAYTON AVE</t>
         </is>
       </c>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
       <c r="M75" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Justin Lee</t>
         </is>
       </c>
       <c r="O75" t="inlineStr">
@@ -4539,19 +4539,19 @@
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr">
         <is>
-          <t>12345 W LAYTON AVE</t>
+          <t>https://goo.gl/maps/TSgMUriHbJPX9hGE7</t>
         </is>
       </c>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
       <c r="M76" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="N76" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
+          <t>Lori</t>
         </is>
       </c>
       <c r="O76" t="inlineStr">
@@ -4584,21 +4584,17 @@
       <c r="G77" t="inlineStr"/>
       <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/TSgMUriHbJPX9hGE7</t>
-        </is>
-      </c>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
       <c r="M77" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="N77" t="inlineStr">
         <is>
-          <t>Lori</t>
+          <t>Michael N</t>
         </is>
       </c>
       <c r="O77" t="inlineStr">
@@ -4630,18 +4626,30 @@
       </c>
       <c r="G78" t="inlineStr"/>
       <c r="H78" t="inlineStr"/>
-      <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>Optima available, Equip</t>
+        </is>
+      </c>
       <c r="L78" t="inlineStr"/>
       <c r="M78" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>12)</t>
         </is>
       </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t>Michael N</t>
+          <t>Nate</t>
         </is>
       </c>
       <c r="O78" t="inlineStr">
@@ -4675,28 +4683,28 @@
       <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>Katherine</t>
+          <t>Justin Lee</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>Optima available, Equip</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="L79" t="inlineStr"/>
       <c r="M79" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>13)</t>
         </is>
       </c>
       <c r="N79" t="inlineStr">
         <is>
-          <t>Nate</t>
+          <t>Qiana</t>
         </is>
       </c>
       <c r="O79" t="inlineStr">
@@ -4730,12 +4738,12 @@
       <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
+          <t>Nate</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
@@ -4746,12 +4754,12 @@
       <c r="L80" t="inlineStr"/>
       <c r="M80" t="inlineStr">
         <is>
-          <t>13)</t>
+          <t>14)</t>
         </is>
       </c>
       <c r="N80" t="inlineStr">
         <is>
-          <t>Qiana</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="O80" t="inlineStr">
@@ -4783,37 +4791,13 @@
       </c>
       <c r="G81" t="inlineStr"/>
       <c r="H81" t="inlineStr"/>
-      <c r="I81" t="inlineStr">
-        <is>
-          <t>3)</t>
-        </is>
-      </c>
-      <c r="J81" t="inlineStr">
-        <is>
-          <t>Nate</t>
-        </is>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
-      <c r="M81" t="inlineStr">
-        <is>
-          <t>14)</t>
-        </is>
-      </c>
-      <c r="N81" t="inlineStr">
-        <is>
-          <t>Sarah</t>
-        </is>
-      </c>
-      <c r="O81" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="M81" t="inlineStr"/>
+      <c r="N81" t="inlineStr"/>
+      <c r="O81" t="inlineStr"/>
       <c r="P81" t="inlineStr"/>
       <c r="Q81" t="inlineStr"/>
       <c r="R81" t="inlineStr"/>
@@ -4866,7 +4850,11 @@
       <c r="G83" t="inlineStr"/>
       <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>Office</t>
+        </is>
+      </c>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
       <c r="M83" t="inlineStr"/>
@@ -4908,7 +4896,7 @@
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr">
         <is>
-          <t>Office</t>
+          <t>Kim</t>
         </is>
       </c>
       <c r="K84" t="inlineStr"/>
@@ -4949,11 +4937,7 @@
       </c>
       <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr">
-        <is>
-          <t>Kim</t>
-        </is>
-      </c>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
       <c r="M85" t="inlineStr"/>

--- a/02-22-26 to 02-28-26 Milwaukee Schedule.xlsx
+++ b/02-22-26 to 02-28-26 Milwaukee Schedule.xlsx
@@ -2647,7 +2647,7 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>Annette</t>
+          <t>Dan</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
@@ -2708,7 +2708,7 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>Dan</t>
+          <t>Katie</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
@@ -2763,7 +2763,7 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>Katie</t>
+          <t>Madison</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
@@ -2822,7 +2822,7 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>Madison</t>
+          <t>Mai</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
@@ -2885,7 +2885,7 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>Mai</t>
+          <t>Taya</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
@@ -2941,21 +2941,9 @@
       </c>
       <c r="G45" t="inlineStr"/>
       <c r="H45" t="inlineStr"/>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t>13)</t>
-        </is>
-      </c>
-      <c r="J45" t="inlineStr">
-        <is>
-          <t>Taya</t>
-        </is>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
       <c r="M45" t="inlineStr"/>
       <c r="N45" t="inlineStr">

--- a/02-22-26 to 02-28-26 Milwaukee Schedule.xlsx
+++ b/02-22-26 to 02-28-26 Milwaukee Schedule.xlsx
@@ -4920,7 +4920,7 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>work w/ Ashley</t>
+          <t>work w/ Angela</t>
         </is>
       </c>
       <c r="H85" t="inlineStr"/>
@@ -5068,7 +5068,7 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Ashley P</t>
+          <t>Angela</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">

--- a/02-22-26 to 02-28-26 Milwaukee Schedule.xlsx
+++ b/02-22-26 to 02-28-26 Milwaukee Schedule.xlsx
@@ -2413,7 +2413,7 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>Charletta</t>
+          <t>Kim</t>
         </is>
       </c>
       <c r="K36" t="inlineStr"/>
@@ -4838,11 +4838,7 @@
       <c r="G83" t="inlineStr"/>
       <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr">
-        <is>
-          <t>Office</t>
-        </is>
-      </c>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
       <c r="M83" t="inlineStr"/>
@@ -4882,11 +4878,7 @@
       </c>
       <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr">
-        <is>
-          <t>Kim</t>
-        </is>
-      </c>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
       <c r="M84" t="inlineStr"/>

--- a/02-22-26 to 02-28-26 Milwaukee Schedule.xlsx
+++ b/02-22-26 to 02-28-26 Milwaukee Schedule.xlsx
@@ -1065,7 +1065,7 @@
       <c r="U14" t="inlineStr"/>
       <c r="V14" t="inlineStr">
         <is>
-          <t>*Early meet for Kim/Greg/Sonia is 5:30 am at Ryan Rd PNR</t>
+          <t>*Early meet for Kim/Sonia is 5:30 am at Ryan Rd PNR</t>
         </is>
       </c>
       <c r="W14" t="inlineStr"/>
@@ -1335,10 +1335,14 @@
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>Charletta</t>
-        </is>
-      </c>
-      <c r="O18" t="inlineStr"/>
+          <t>DJ</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>Supv Rx</t>
+        </is>
+      </c>
       <c r="P18" t="inlineStr"/>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1365,8 +1369,7 @@
       <c r="W18" t="inlineStr">
         <is>
           <t>Driver,
-Red Camry,
-Trainer</t>
+Red Camry</t>
         </is>
       </c>
       <c r="X18" t="inlineStr"/>
@@ -1416,14 +1419,10 @@
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="O19" t="inlineStr">
-        <is>
-          <t>Supv Rx</t>
-        </is>
-      </c>
+          <t>Greg</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr"/>
       <c r="P19" t="inlineStr"/>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1496,10 +1495,14 @@
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>Greg</t>
-        </is>
-      </c>
-      <c r="O20" t="inlineStr"/>
+          <t>Ian</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>After Aurora</t>
+        </is>
+      </c>
       <c r="P20" t="inlineStr"/>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1526,14 +1529,10 @@
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>Charletta</t>
-        </is>
-      </c>
-      <c r="W20" t="inlineStr">
-        <is>
-          <t>work w/ Carlie</t>
-        </is>
-      </c>
+          <t>Cynthia</t>
+        </is>
+      </c>
+      <c r="W20" t="inlineStr"/>
       <c r="X20" t="inlineStr"/>
       <c r="Y20" t="inlineStr"/>
     </row>
@@ -1577,14 +1576,10 @@
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>Ian</t>
-        </is>
-      </c>
-      <c r="O21" t="inlineStr">
-        <is>
-          <t>After Aurora</t>
-        </is>
-      </c>
+          <t>Leyna</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr"/>
       <c r="P21" t="inlineStr"/>
       <c r="Q21" t="inlineStr">
         <is>
@@ -1605,7 +1600,7 @@
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>Cynthia</t>
+          <t>Greg</t>
         </is>
       </c>
       <c r="W21" t="inlineStr"/>
@@ -1640,7 +1635,7 @@
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>Leyna</t>
+          <t>Mariah</t>
         </is>
       </c>
       <c r="O22" t="inlineStr"/>
@@ -1668,12 +1663,13 @@
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>Greg</t>
+          <t>Jerry D</t>
         </is>
       </c>
       <c r="W22" t="inlineStr">
         <is>
-          <t>Early w/ Kim</t>
+          <t>Driver,
+Red Van</t>
         </is>
       </c>
       <c r="X22" t="inlineStr"/>
@@ -1711,7 +1707,7 @@
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>Mariah</t>
+          <t>Matthew</t>
         </is>
       </c>
       <c r="O23" t="inlineStr"/>
@@ -1739,15 +1735,10 @@
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>Jerry D</t>
-        </is>
-      </c>
-      <c r="W23" t="inlineStr">
-        <is>
-          <t>Driver,
-Red Van</t>
-        </is>
-      </c>
+          <t>Leyna</t>
+        </is>
+      </c>
+      <c r="W23" t="inlineStr"/>
       <c r="X23" t="inlineStr"/>
       <c r="Y23" t="inlineStr"/>
     </row>
@@ -1775,7 +1766,7 @@
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>Matthew</t>
+          <t>Monica</t>
         </is>
       </c>
       <c r="O24" t="inlineStr"/>
@@ -1799,7 +1790,7 @@
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>Leyna</t>
+          <t>Mariah</t>
         </is>
       </c>
       <c r="W24" t="inlineStr"/>
@@ -1830,10 +1821,14 @@
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>Monica</t>
-        </is>
-      </c>
-      <c r="O25" t="inlineStr"/>
+          <t>Paul</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>Until 11:30</t>
+        </is>
+      </c>
       <c r="P25" t="inlineStr"/>
       <c r="Q25" t="inlineStr">
         <is>
@@ -1858,7 +1853,7 @@
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>Mariah</t>
+          <t>Monica</t>
         </is>
       </c>
       <c r="W25" t="inlineStr"/>
@@ -1893,14 +1888,10 @@
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>Paul</t>
-        </is>
-      </c>
-      <c r="O26" t="inlineStr">
-        <is>
-          <t>Until 11:30</t>
-        </is>
-      </c>
+          <t>Sonia</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr"/>
       <c r="P26" t="inlineStr"/>
       <c r="Q26" t="inlineStr">
         <is>
@@ -1921,10 +1912,14 @@
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>Monica</t>
-        </is>
-      </c>
-      <c r="W26" t="inlineStr"/>
+          <t>Sonia</t>
+        </is>
+      </c>
+      <c r="W26" t="inlineStr">
+        <is>
+          <t>Early w/ Kim</t>
+        </is>
+      </c>
       <c r="X26" t="inlineStr"/>
       <c r="Y26" t="inlineStr"/>
     </row>
@@ -1956,7 +1951,7 @@
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Sue</t>
         </is>
       </c>
       <c r="O27" t="inlineStr"/>
@@ -1972,14 +1967,10 @@
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>Sonia</t>
-        </is>
-      </c>
-      <c r="W27" t="inlineStr">
-        <is>
-          <t>Early w/ Kim</t>
-        </is>
-      </c>
+          <t>Zakiyah</t>
+        </is>
+      </c>
+      <c r="W27" t="inlineStr"/>
       <c r="X27" t="inlineStr"/>
       <c r="Y27" t="inlineStr"/>
     </row>
@@ -2020,16 +2011,8 @@
       <c r="R28" t="inlineStr"/>
       <c r="S28" t="inlineStr"/>
       <c r="T28" t="inlineStr"/>
-      <c r="U28" t="inlineStr">
-        <is>
-          <t>13)</t>
-        </is>
-      </c>
-      <c r="V28" t="inlineStr">
-        <is>
-          <t>Zakiyah</t>
-        </is>
-      </c>
+      <c r="U28" t="inlineStr"/>
+      <c r="V28" t="inlineStr"/>
       <c r="W28" t="inlineStr"/>
       <c r="X28" t="inlineStr"/>
       <c r="Y28" t="inlineStr"/>
@@ -2103,7 +2086,11 @@
       <c r="S30" t="inlineStr"/>
       <c r="T30" t="inlineStr"/>
       <c r="U30" t="inlineStr"/>
-      <c r="V30" t="inlineStr"/>
+      <c r="V30" t="inlineStr">
+        <is>
+          <t>6:30 AM MEET WATERTOWN PLANK</t>
+        </is>
+      </c>
       <c r="W30" t="inlineStr"/>
       <c r="X30" t="inlineStr"/>
       <c r="Y30" t="inlineStr"/>
@@ -2156,7 +2143,7 @@
       <c r="U31" t="inlineStr"/>
       <c r="V31" t="inlineStr">
         <is>
-          <t>6:30 AM MEET WATERTOWN PLANK</t>
+          <t>7:00 AM START</t>
         </is>
       </c>
       <c r="W31" t="inlineStr"/>
@@ -2203,7 +2190,7 @@
       <c r="U32" t="inlineStr"/>
       <c r="V32" t="inlineStr">
         <is>
-          <t>7:00 AM START</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="W32" t="inlineStr"/>
@@ -2262,7 +2249,7 @@
       <c r="U33" t="inlineStr"/>
       <c r="V33" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>RAPID MART HARTFORD</t>
         </is>
       </c>
       <c r="W33" t="inlineStr"/>
@@ -2326,7 +2313,7 @@
       <c r="U34" t="inlineStr"/>
       <c r="V34" t="inlineStr">
         <is>
-          <t>RAPID MART HARTFORD</t>
+          <t>2712 E SUMNER ST</t>
         </is>
       </c>
       <c r="W34" t="inlineStr"/>
@@ -2382,7 +2369,7 @@
       <c r="U35" t="inlineStr"/>
       <c r="V35" t="inlineStr">
         <is>
-          <t>2712 E SUMNER ST</t>
+          <t>https://goo.gl/maps/5dpExsTUAgz</t>
         </is>
       </c>
       <c r="W35" t="inlineStr"/>
@@ -2439,11 +2426,7 @@
       </c>
       <c r="T36" t="inlineStr"/>
       <c r="U36" t="inlineStr"/>
-      <c r="V36" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/5dpExsTUAgz</t>
-        </is>
-      </c>
+      <c r="V36" t="inlineStr"/>
       <c r="W36" t="inlineStr"/>
       <c r="X36" t="inlineStr"/>
       <c r="Y36" t="inlineStr"/>
@@ -2501,9 +2484,22 @@
       </c>
       <c r="S37" t="inlineStr"/>
       <c r="T37" t="inlineStr"/>
-      <c r="U37" t="inlineStr"/>
-      <c r="V37" t="inlineStr"/>
-      <c r="W37" t="inlineStr"/>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="V37" t="inlineStr">
+        <is>
+          <t>Ian</t>
+        </is>
+      </c>
+      <c r="W37" t="inlineStr">
+        <is>
+          <t>Driver,
+Wht Camry, Equip</t>
+        </is>
+      </c>
       <c r="X37" t="inlineStr"/>
       <c r="Y37" t="inlineStr"/>
     </row>
@@ -2546,20 +2542,15 @@
       <c r="T38" t="inlineStr"/>
       <c r="U38" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>Ian</t>
-        </is>
-      </c>
-      <c r="W38" t="inlineStr">
-        <is>
-          <t>Driver,
-Wht Camry, Equip</t>
-        </is>
-      </c>
+          <t>Paul</t>
+        </is>
+      </c>
+      <c r="W38" t="inlineStr"/>
       <c r="X38" t="inlineStr"/>
       <c r="Y38" t="inlineStr"/>
     </row>
@@ -2604,25 +2595,18 @@
       </c>
       <c r="R39" t="inlineStr">
         <is>
-          <t>Charletta</t>
+          <t>Jerry D</t>
         </is>
       </c>
       <c r="S39" t="inlineStr">
         <is>
-          <t>work w/ Jerry</t>
+          <t>Driver,
+Red Van</t>
         </is>
       </c>
       <c r="T39" t="inlineStr"/>
-      <c r="U39" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="V39" t="inlineStr">
-        <is>
-          <t>Paul</t>
-        </is>
-      </c>
+      <c r="U39" t="inlineStr"/>
+      <c r="V39" t="inlineStr"/>
       <c r="W39" t="inlineStr"/>
       <c r="X39" t="inlineStr"/>
       <c r="Y39" t="inlineStr"/>
@@ -2671,16 +2655,10 @@
       </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>Jerry D</t>
-        </is>
-      </c>
-      <c r="S40" t="inlineStr">
-        <is>
-          <t>Driver,
-Red Van,
-Trainer</t>
-        </is>
-      </c>
+          <t>Leyna</t>
+        </is>
+      </c>
+      <c r="S40" t="inlineStr"/>
       <c r="T40" t="inlineStr"/>
       <c r="U40" t="inlineStr"/>
       <c r="V40" t="inlineStr"/>
@@ -2732,13 +2710,17 @@
       </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>Leyna</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="S41" t="inlineStr"/>
       <c r="T41" t="inlineStr"/>
       <c r="U41" t="inlineStr"/>
-      <c r="V41" t="inlineStr"/>
+      <c r="V41" t="inlineStr">
+        <is>
+          <t>5:00 AM OFFICE LEAVE TIME</t>
+        </is>
+      </c>
       <c r="W41" t="inlineStr"/>
       <c r="X41" t="inlineStr"/>
       <c r="Y41" t="inlineStr"/>
@@ -2787,15 +2769,19 @@
       </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t>Paul</t>
-        </is>
-      </c>
-      <c r="S42" t="inlineStr"/>
+          <t>Dan</t>
+        </is>
+      </c>
+      <c r="S42" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T42" t="inlineStr"/>
       <c r="U42" t="inlineStr"/>
       <c r="V42" t="inlineStr">
         <is>
-          <t>5:00 AM OFFICE LEAVE TIME</t>
+          <t xml:space="preserve">6:00 AM START </t>
         </is>
       </c>
       <c r="W42" t="inlineStr"/>
@@ -2846,7 +2832,7 @@
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>Dan</t>
+          <t>Kirsten</t>
         </is>
       </c>
       <c r="S43" t="inlineStr">
@@ -2858,7 +2844,7 @@
       <c r="U43" t="inlineStr"/>
       <c r="V43" t="inlineStr">
         <is>
-          <t xml:space="preserve">6:00 AM START </t>
+          <t xml:space="preserve">DC5-FINANCIAL </t>
         </is>
       </c>
       <c r="W43" t="inlineStr"/>
@@ -2909,7 +2895,7 @@
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>Kirsten</t>
+          <t>Mai</t>
         </is>
       </c>
       <c r="S44" t="inlineStr">
@@ -2921,7 +2907,7 @@
       <c r="U44" t="inlineStr"/>
       <c r="V44" t="inlineStr">
         <is>
-          <t xml:space="preserve">DC5-FINANCIAL </t>
+          <t>ROTE OIL #14 TREVOR (CITGO)</t>
         </is>
       </c>
       <c r="W44" t="inlineStr"/>
@@ -2960,7 +2946,7 @@
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>Mai</t>
+          <t>Marcia</t>
         </is>
       </c>
       <c r="S45" t="inlineStr">
@@ -2972,7 +2958,7 @@
       <c r="U45" t="inlineStr"/>
       <c r="V45" t="inlineStr">
         <is>
-          <t>ROTE OIL #14 TREVOR (CITGO)</t>
+          <t>12617 ANTIOCH RD</t>
         </is>
       </c>
       <c r="W45" t="inlineStr"/>
@@ -3011,7 +2997,7 @@
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>Marcia</t>
+          <t>Taya</t>
         </is>
       </c>
       <c r="S46" t="inlineStr">
@@ -3023,7 +3009,7 @@
       <c r="U46" t="inlineStr"/>
       <c r="V46" t="inlineStr">
         <is>
-          <t>12617 ANTIOCH RD</t>
+          <t>https://goo.gl/maps/xA9YMzPGc6Vhxi5r8</t>
         </is>
       </c>
       <c r="W46" t="inlineStr"/>
@@ -3055,26 +3041,14 @@
       </c>
       <c r="O47" t="inlineStr"/>
       <c r="P47" t="inlineStr"/>
-      <c r="Q47" t="inlineStr">
-        <is>
-          <t>12)</t>
-        </is>
-      </c>
-      <c r="R47" t="inlineStr">
-        <is>
-          <t>Taya</t>
-        </is>
-      </c>
-      <c r="S47" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="Q47" t="inlineStr"/>
+      <c r="R47" t="inlineStr"/>
+      <c r="S47" t="inlineStr"/>
       <c r="T47" t="inlineStr"/>
       <c r="U47" t="inlineStr"/>
       <c r="V47" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/xA9YMzPGc6Vhxi5r8</t>
+          <t>TO FOLLOW</t>
         </is>
       </c>
       <c r="W47" t="inlineStr"/>
@@ -3117,7 +3091,7 @@
       <c r="U48" t="inlineStr"/>
       <c r="V48" t="inlineStr">
         <is>
-          <t>TO FOLLOW</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="W48" t="inlineStr"/>
@@ -3160,7 +3134,7 @@
       <c r="U49" t="inlineStr"/>
       <c r="V49" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>ROTE OIL #13 TREVOR (BP)</t>
         </is>
       </c>
       <c r="W49" t="inlineStr"/>
@@ -3203,7 +3177,7 @@
       <c r="U50" t="inlineStr"/>
       <c r="V50" t="inlineStr">
         <is>
-          <t>ROTE OIL #13 TREVOR (BP)</t>
+          <t>12511 ANTIOCH RD</t>
         </is>
       </c>
       <c r="W50" t="inlineStr"/>
@@ -3259,7 +3233,7 @@
       <c r="U51" t="inlineStr"/>
       <c r="V51" t="inlineStr">
         <is>
-          <t>12511 ANTIOCH RD</t>
+          <t>https://goo.gl/maps/iu3xzNwgJ32esP5RA</t>
         </is>
       </c>
       <c r="W51" t="inlineStr"/>
@@ -3310,7 +3284,7 @@
       <c r="U52" t="inlineStr"/>
       <c r="V52" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/iu3xzNwgJ32esP5RA</t>
+          <t>*Check in with Mt Pleasant after if done in decent timing</t>
         </is>
       </c>
       <c r="W52" t="inlineStr"/>
@@ -4186,10 +4160,15 @@
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>Sue</t>
-        </is>
-      </c>
-      <c r="O70" t="inlineStr"/>
+          <t>Angela</t>
+        </is>
+      </c>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>@ Store,
+Rx</t>
+        </is>
+      </c>
       <c r="P70" t="inlineStr"/>
       <c r="Q70" t="inlineStr"/>
       <c r="R70" t="inlineStr"/>
@@ -4237,13 +4216,13 @@
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>Angela</t>
+          <t>Ashley P</t>
         </is>
       </c>
       <c r="O71" t="inlineStr">
         <is>
           <t>@ Store,
-Rx</t>
+Supv Rx</t>
         </is>
       </c>
       <c r="P71" t="inlineStr"/>
@@ -4305,13 +4284,13 @@
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t>Ashley P</t>
+          <t>Eva</t>
         </is>
       </c>
       <c r="O72" t="inlineStr">
         <is>
           <t>@ Store,
-Supv Rx</t>
+Rx</t>
         </is>
       </c>
       <c r="P72" t="inlineStr"/>
@@ -4375,13 +4354,12 @@
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t>Eva</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>@ Store,
-Rx</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="P73" t="inlineStr"/>
@@ -4440,7 +4418,7 @@
       </c>
       <c r="N74" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Justin Lee</t>
         </is>
       </c>
       <c r="O74" t="inlineStr">
@@ -4496,7 +4474,7 @@
       </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
+          <t>Lori</t>
         </is>
       </c>
       <c r="O75" t="inlineStr">
@@ -4539,7 +4517,7 @@
       </c>
       <c r="N76" t="inlineStr">
         <is>
-          <t>Lori</t>
+          <t>Michael N</t>
         </is>
       </c>
       <c r="O76" t="inlineStr">
@@ -4582,7 +4560,7 @@
       </c>
       <c r="N77" t="inlineStr">
         <is>
-          <t>Michael N</t>
+          <t>Nate</t>
         </is>
       </c>
       <c r="O77" t="inlineStr">
@@ -4637,7 +4615,7 @@
       </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t>Nate</t>
+          <t>Qiana</t>
         </is>
       </c>
       <c r="O78" t="inlineStr">
@@ -4692,7 +4670,7 @@
       </c>
       <c r="N79" t="inlineStr">
         <is>
-          <t>Qiana</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="O79" t="inlineStr">
@@ -4740,21 +4718,9 @@
         </is>
       </c>
       <c r="L80" t="inlineStr"/>
-      <c r="M80" t="inlineStr">
-        <is>
-          <t>14)</t>
-        </is>
-      </c>
-      <c r="N80" t="inlineStr">
-        <is>
-          <t>Sarah</t>
-        </is>
-      </c>
-      <c r="O80" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="M80" t="inlineStr"/>
+      <c r="N80" t="inlineStr"/>
+      <c r="O80" t="inlineStr"/>
       <c r="P80" t="inlineStr"/>
       <c r="Q80" t="inlineStr"/>
       <c r="R80" t="inlineStr"/>

--- a/02-22-26 to 02-28-26 Milwaukee Schedule.xlsx
+++ b/02-22-26 to 02-28-26 Milwaukee Schedule.xlsx
@@ -1564,7 +1564,7 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Monica</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="K21" t="inlineStr"/>
@@ -1623,10 +1623,14 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Sonia</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr"/>
+          <t>Bri</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="L22" t="inlineStr"/>
       <c r="M22" t="inlineStr">
         <is>
@@ -1691,7 +1695,7 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Bri</t>
+          <t>Nate</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -3128,7 +3132,11 @@
       <c r="O49" t="inlineStr"/>
       <c r="P49" t="inlineStr"/>
       <c r="Q49" t="inlineStr"/>
-      <c r="R49" t="inlineStr"/>
+      <c r="R49" t="inlineStr">
+        <is>
+          <t>6:00 AM START</t>
+        </is>
+      </c>
       <c r="S49" t="inlineStr"/>
       <c r="T49" t="inlineStr"/>
       <c r="U49" t="inlineStr"/>
@@ -3169,7 +3177,7 @@
       <c r="Q50" t="inlineStr"/>
       <c r="R50" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="S50" t="inlineStr"/>
@@ -3225,7 +3233,7 @@
       <c r="Q51" t="inlineStr"/>
       <c r="R51" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>ROTE OIL #1 PADDOCK LAKE- BRASS BALL</t>
         </is>
       </c>
       <c r="S51" t="inlineStr"/>
@@ -3276,7 +3284,7 @@
       <c r="Q52" t="inlineStr"/>
       <c r="R52" t="inlineStr">
         <is>
-          <t>ROTE OIL #1 PADDOCK LAKE- BRASS BALL</t>
+          <t>25406 75TH ST</t>
         </is>
       </c>
       <c r="S52" t="inlineStr"/>
@@ -3315,7 +3323,7 @@
       <c r="Q53" t="inlineStr"/>
       <c r="R53" t="inlineStr">
         <is>
-          <t>25406 75TH ST</t>
+          <t>https://goo.gl/maps/LTa4ckcczx5qc8269</t>
         </is>
       </c>
       <c r="S53" t="inlineStr"/>
@@ -3362,7 +3370,7 @@
       <c r="Q54" t="inlineStr"/>
       <c r="R54" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/LTa4ckcczx5qc8269</t>
+          <t>TO FOLLOW</t>
         </is>
       </c>
       <c r="S54" t="inlineStr"/>
@@ -3413,7 +3421,7 @@
       <c r="Q55" t="inlineStr"/>
       <c r="R55" t="inlineStr">
         <is>
-          <t>TO FOLLOW</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="S55" t="inlineStr"/>
@@ -3460,7 +3468,7 @@
       <c r="Q56" t="inlineStr"/>
       <c r="R56" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>ROTE OIL #2 PADDOCK LAKE- 75TH ST</t>
         </is>
       </c>
       <c r="S56" t="inlineStr"/>
@@ -3507,7 +3515,7 @@
       <c r="Q57" t="inlineStr"/>
       <c r="R57" t="inlineStr">
         <is>
-          <t>ROTE OIL #2 PADDOCK LAKE- 75TH ST</t>
+          <t>25555 75TH ST</t>
         </is>
       </c>
       <c r="S57" t="inlineStr"/>
@@ -3550,7 +3558,7 @@
       <c r="Q58" t="inlineStr"/>
       <c r="R58" t="inlineStr">
         <is>
-          <t>25555 75TH ST</t>
+          <t>https://goo.gl/maps/5UyWWXXbzXMaVnv99</t>
         </is>
       </c>
       <c r="S58" t="inlineStr"/>
@@ -3591,11 +3599,7 @@
       <c r="O59" t="inlineStr"/>
       <c r="P59" t="inlineStr"/>
       <c r="Q59" t="inlineStr"/>
-      <c r="R59" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/5UyWWXXbzXMaVnv99</t>
-        </is>
-      </c>
+      <c r="R59" t="inlineStr"/>
       <c r="S59" t="inlineStr"/>
       <c r="T59" t="inlineStr"/>
       <c r="U59" t="inlineStr"/>
@@ -3637,9 +3641,21 @@
       </c>
       <c r="O60" t="inlineStr"/>
       <c r="P60" t="inlineStr"/>
-      <c r="Q60" t="inlineStr"/>
-      <c r="R60" t="inlineStr"/>
-      <c r="S60" t="inlineStr"/>
+      <c r="Q60" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="R60" t="inlineStr">
+        <is>
+          <t>Bri</t>
+        </is>
+      </c>
+      <c r="S60" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="T60" t="inlineStr"/>
       <c r="U60" t="inlineStr"/>
       <c r="V60" t="inlineStr">
@@ -3682,17 +3698,17 @@
       <c r="P61" t="inlineStr"/>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="R61" t="inlineStr">
         <is>
-          <t>Bri</t>
+          <t>Kim</t>
         </is>
       </c>
       <c r="S61" t="inlineStr">
         <is>
-          <t>@ Store, Equip</t>
+          <t>Santa Fe</t>
         </is>
       </c>
       <c r="T61" t="inlineStr"/>
@@ -3735,21 +3751,9 @@
       </c>
       <c r="O62" t="inlineStr"/>
       <c r="P62" t="inlineStr"/>
-      <c r="Q62" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="R62" t="inlineStr">
-        <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="S62" t="inlineStr">
-        <is>
-          <t>Santa Fe</t>
-        </is>
-      </c>
+      <c r="Q62" t="inlineStr"/>
+      <c r="R62" t="inlineStr"/>
+      <c r="S62" t="inlineStr"/>
       <c r="T62" t="inlineStr"/>
       <c r="U62" t="inlineStr"/>
       <c r="V62" t="inlineStr">
@@ -3830,7 +3834,11 @@
       <c r="O64" t="inlineStr"/>
       <c r="P64" t="inlineStr"/>
       <c r="Q64" t="inlineStr"/>
-      <c r="R64" t="inlineStr"/>
+      <c r="R64" t="inlineStr">
+        <is>
+          <t>Office / Mapping after</t>
+        </is>
+      </c>
       <c r="S64" t="inlineStr"/>
       <c r="T64" t="inlineStr"/>
       <c r="U64" t="inlineStr">
@@ -3883,7 +3891,7 @@
       <c r="Q65" t="inlineStr"/>
       <c r="R65" t="inlineStr">
         <is>
-          <t>Office / Mapping after</t>
+          <t>Kim</t>
         </is>
       </c>
       <c r="S65" t="inlineStr"/>
@@ -3933,11 +3941,7 @@
       <c r="O66" t="inlineStr"/>
       <c r="P66" t="inlineStr"/>
       <c r="Q66" t="inlineStr"/>
-      <c r="R66" t="inlineStr">
-        <is>
-          <t>Kim</t>
-        </is>
-      </c>
+      <c r="R66" t="inlineStr"/>
       <c r="S66" t="inlineStr"/>
       <c r="T66" t="inlineStr"/>
       <c r="U66" t="inlineStr">
@@ -4702,21 +4706,9 @@
       </c>
       <c r="G80" t="inlineStr"/>
       <c r="H80" t="inlineStr"/>
-      <c r="I80" t="inlineStr">
-        <is>
-          <t>3)</t>
-        </is>
-      </c>
-      <c r="J80" t="inlineStr">
-        <is>
-          <t>Nate</t>
-        </is>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
       <c r="M80" t="inlineStr"/>
       <c r="N80" t="inlineStr"/>

--- a/02-22-26 to 02-28-26 Milwaukee Schedule.xlsx
+++ b/02-22-26 to 02-28-26 Milwaukee Schedule.xlsx
@@ -1160,7 +1160,7 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Celina</t>
+          <t>Andrew</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -1242,10 +1242,14 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Cynthia</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr"/>
+          <t>Celina</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr">
         <is>
@@ -1318,15 +1322,10 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Greg</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>Driver,
-Red Van</t>
-        </is>
-      </c>
+          <t>Cynthia</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr">
         <is>
@@ -1403,12 +1402,13 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>Greg</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>Driver,
+Red Van</t>
         </is>
       </c>
       <c r="L19" t="inlineStr"/>
@@ -1483,10 +1483,14 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Matthew</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr"/>
+          <t>Jerry D</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr">
         <is>
@@ -1564,10 +1568,14 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Sonia</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr"/>
+          <t>Leyna</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr">
         <is>
@@ -2289,12 +2297,13 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>Andrew</t>
+          <t>Carlie</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>work w/ Leyna</t>
+          <t>Driver,
+Red Camry</t>
         </is>
       </c>
       <c r="L34" t="inlineStr"/>
@@ -2348,15 +2357,10 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>Carlie</t>
-        </is>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>Driver,
-Red Camry</t>
-        </is>
-      </c>
+          <t>Kim</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
       <c r="M35" t="inlineStr"/>
       <c r="N35" t="inlineStr">
@@ -2404,7 +2408,7 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>Kim</t>
+          <t>Matthew</t>
         </is>
       </c>
       <c r="K36" t="inlineStr"/>
@@ -2451,14 +2455,10 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Leyna</t>
-        </is>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>Trainer</t>
-        </is>
-      </c>
+          <t>Paul</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
       <c r="M37" t="inlineStr">
         <is>
@@ -2523,7 +2523,7 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="K38" t="inlineStr"/>
@@ -3034,7 +3034,11 @@
       <c r="G47" t="inlineStr"/>
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>7:00 AM START</t>
+        </is>
+      </c>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
       <c r="M47" t="inlineStr"/>
@@ -3075,7 +3079,7 @@
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr">
         <is>
-          <t>7:00 AM START</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="K48" t="inlineStr"/>
@@ -3118,7 +3122,7 @@
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>CONCORD GENERAL STORE, OCONOMOWOC</t>
         </is>
       </c>
       <c r="K49" t="inlineStr"/>
@@ -3161,7 +3165,7 @@
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr">
         <is>
-          <t>CONCORD GENERAL STORE, OCONOMOWOC</t>
+          <t>N6485 COUNTY RD F</t>
         </is>
       </c>
       <c r="K50" t="inlineStr"/>
@@ -3217,7 +3221,7 @@
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr">
         <is>
-          <t>N6485 COUNTY RD F</t>
+          <t>https://goo.gl/maps/X4xEoL3zCRA2</t>
         </is>
       </c>
       <c r="K51" t="inlineStr"/>
@@ -3266,11 +3270,7 @@
       <c r="G52" t="inlineStr"/>
       <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/X4xEoL3zCRA2</t>
-        </is>
-      </c>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
       <c r="M52" t="inlineStr"/>
@@ -3308,9 +3308,21 @@
       <c r="F53" t="inlineStr"/>
       <c r="G53" t="inlineStr"/>
       <c r="H53" t="inlineStr"/>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>Ian</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>Santa Fe available, Equip</t>
+        </is>
+      </c>
       <c r="L53" t="inlineStr"/>
       <c r="M53" t="inlineStr"/>
       <c r="N53" t="inlineStr">
@@ -3343,21 +3355,9 @@
       <c r="F54" t="inlineStr"/>
       <c r="G54" t="inlineStr"/>
       <c r="H54" t="inlineStr"/>
-      <c r="I54" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="J54" t="inlineStr">
-        <is>
-          <t>Ian</t>
-        </is>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>Santa Fe available, Equip</t>
-        </is>
-      </c>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
       <c r="M54" t="inlineStr"/>
       <c r="N54" t="inlineStr">
@@ -3446,7 +3446,11 @@
       <c r="G56" t="inlineStr"/>
       <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>5:30 AM START</t>
+        </is>
+      </c>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
       <c r="M56" t="inlineStr">
@@ -3495,7 +3499,7 @@
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr">
         <is>
-          <t>5:30 AM START</t>
+          <t xml:space="preserve">DC5-FINANCIAL  </t>
         </is>
       </c>
       <c r="K57" t="inlineStr"/>
@@ -3546,7 +3550,7 @@
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr">
         <is>
-          <t xml:space="preserve">DC5-FINANCIAL  </t>
+          <t>ROTE OIL #6 HUBERTUS</t>
         </is>
       </c>
       <c r="K58" t="inlineStr"/>
@@ -3589,7 +3593,7 @@
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr">
         <is>
-          <t>ROTE OIL #6 HUBERTUS</t>
+          <t>1306 HWY 175</t>
         </is>
       </c>
       <c r="K59" t="inlineStr"/>
@@ -3628,7 +3632,7 @@
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr">
         <is>
-          <t>1306 HWY 175</t>
+          <t>https://goo.gl/maps/SZRuQ4FHA1cX2ZmC8</t>
         </is>
       </c>
       <c r="K60" t="inlineStr"/>
@@ -3683,7 +3687,7 @@
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/SZRuQ4FHA1cX2ZmC8</t>
+          <t xml:space="preserve">TO FOLLOW   </t>
         </is>
       </c>
       <c r="K61" t="inlineStr"/>
@@ -3738,7 +3742,7 @@
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr">
         <is>
-          <t xml:space="preserve">TO FOLLOW   </t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="K62" t="inlineStr"/>
@@ -3781,7 +3785,7 @@
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>ROTE OIL #7 MILWAUKEE</t>
         </is>
       </c>
       <c r="K63" t="inlineStr"/>
@@ -3820,7 +3824,7 @@
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr">
         <is>
-          <t>ROTE OIL #7 MILWAUKEE</t>
+          <t>5931 N 91ST ST</t>
         </is>
       </c>
       <c r="K64" t="inlineStr"/>
@@ -3875,7 +3879,7 @@
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr">
         <is>
-          <t>5931 N 91ST ST</t>
+          <t>https://goo.gl/maps/cw58s7atAhTAGHNd7</t>
         </is>
       </c>
       <c r="K65" t="inlineStr"/>
@@ -3931,7 +3935,7 @@
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/cw58s7atAhTAGHNd7</t>
+          <t xml:space="preserve">TO FOLLOW      </t>
         </is>
       </c>
       <c r="K66" t="inlineStr"/>
@@ -3978,7 +3982,7 @@
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr">
         <is>
-          <t xml:space="preserve">TO FOLLOW      </t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="K67" t="inlineStr"/>
@@ -4037,7 +4041,7 @@
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>ROTE OIL #8 ELM GROVE</t>
         </is>
       </c>
       <c r="K68" t="inlineStr"/>
@@ -4092,7 +4096,7 @@
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr">
         <is>
-          <t>ROTE OIL #8 ELM GROVE</t>
+          <t>13395 WATERTOWN PLANK RD</t>
         </is>
       </c>
       <c r="K69" t="inlineStr"/>
@@ -4152,7 +4156,7 @@
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr">
         <is>
-          <t>13395 WATERTOWN PLANK RD</t>
+          <t>https://goo.gl/maps/5zXAKpcRHDmA17UK9</t>
         </is>
       </c>
       <c r="K70" t="inlineStr"/>
@@ -4208,7 +4212,7 @@
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/5zXAKpcRHDmA17UK9</t>
+          <t xml:space="preserve">TO FOLLOW     </t>
         </is>
       </c>
       <c r="K71" t="inlineStr"/>
@@ -4276,7 +4280,7 @@
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr">
         <is>
-          <t xml:space="preserve">TO FOLLOW     </t>
+          <t xml:space="preserve">DC5-FINANCIAL </t>
         </is>
       </c>
       <c r="K72" t="inlineStr"/>
@@ -4346,7 +4350,7 @@
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr">
         <is>
-          <t xml:space="preserve">DC5-FINANCIAL </t>
+          <t>ROTE OIL #09 GREENFIELD</t>
         </is>
       </c>
       <c r="K73" t="inlineStr"/>
@@ -4410,7 +4414,7 @@
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr">
         <is>
-          <t>ROTE OIL #09 GREENFIELD</t>
+          <t>12345 W LAYTON AVE</t>
         </is>
       </c>
       <c r="K74" t="inlineStr"/>
@@ -4466,7 +4470,7 @@
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr">
         <is>
-          <t>12345 W LAYTON AVE</t>
+          <t>https://goo.gl/maps/TSgMUriHbJPX9hGE7</t>
         </is>
       </c>
       <c r="K75" t="inlineStr"/>
@@ -4507,11 +4511,7 @@
       <c r="G76" t="inlineStr"/>
       <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/TSgMUriHbJPX9hGE7</t>
-        </is>
-      </c>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
       <c r="M76" t="inlineStr">
@@ -4553,9 +4553,21 @@
       </c>
       <c r="G77" t="inlineStr"/>
       <c r="H77" t="inlineStr"/>
-      <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>Optima available, Equip</t>
+        </is>
+      </c>
       <c r="L77" t="inlineStr"/>
       <c r="M77" t="inlineStr">
         <is>
@@ -4598,17 +4610,17 @@
       <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>Katherine</t>
+          <t>Justin Lee</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>Optima available, Equip</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="L78" t="inlineStr"/>
@@ -4651,21 +4663,9 @@
       </c>
       <c r="G79" t="inlineStr"/>
       <c r="H79" t="inlineStr"/>
-      <c r="I79" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="J79" t="inlineStr">
-        <is>
-          <t>Justin Lee</t>
-        </is>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
       <c r="M79" t="inlineStr">
         <is>

--- a/02-22-26 to 02-28-26 Milwaukee Schedule.xlsx
+++ b/02-22-26 to 02-28-26 Milwaukee Schedule.xlsx
@@ -1778,10 +1778,14 @@
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>Monica</t>
-        </is>
-      </c>
-      <c r="O24" t="inlineStr"/>
+          <t>Paul</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>Until 11:30</t>
+        </is>
+      </c>
       <c r="P24" t="inlineStr"/>
       <c r="Q24" t="inlineStr">
         <is>
@@ -1833,14 +1837,10 @@
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>Paul</t>
-        </is>
-      </c>
-      <c r="O25" t="inlineStr">
-        <is>
-          <t>Until 11:30</t>
-        </is>
-      </c>
+          <t>Sonia</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr"/>
       <c r="P25" t="inlineStr"/>
       <c r="Q25" t="inlineStr">
         <is>
@@ -1900,7 +1900,7 @@
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Sue</t>
         </is>
       </c>
       <c r="O26" t="inlineStr"/>
@@ -1963,7 +1963,7 @@
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>Sue</t>
+          <t>Zakiyah</t>
         </is>
       </c>
       <c r="O27" t="inlineStr"/>
@@ -2007,16 +2007,8 @@
       </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>14)</t>
-        </is>
-      </c>
-      <c r="N28" t="inlineStr">
-        <is>
-          <t>Zakiyah</t>
-        </is>
-      </c>
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="inlineStr"/>
       <c r="O28" t="inlineStr"/>
       <c r="P28" t="inlineStr"/>
       <c r="Q28" t="inlineStr"/>
@@ -2086,7 +2078,11 @@
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
       <c r="M30" t="inlineStr"/>
-      <c r="N30" t="inlineStr"/>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>6:00 AM START</t>
+        </is>
+      </c>
       <c r="O30" t="inlineStr"/>
       <c r="P30" t="inlineStr"/>
       <c r="Q30" t="inlineStr"/>
@@ -2139,7 +2135,7 @@
       <c r="M31" t="inlineStr"/>
       <c r="N31" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>MODAS-SCAN</t>
         </is>
       </c>
       <c r="O31" t="inlineStr"/>
@@ -2186,7 +2182,7 @@
       <c r="M32" t="inlineStr"/>
       <c r="N32" t="inlineStr">
         <is>
-          <t>MODAS-SCAN</t>
+          <t>AURORA OUTPATIENT RX #1120, FRANKLIN</t>
         </is>
       </c>
       <c r="O32" t="inlineStr"/>
@@ -2245,7 +2241,7 @@
       <c r="M33" t="inlineStr"/>
       <c r="N33" t="inlineStr">
         <is>
-          <t>AURORA OUTPATIENT RX #1120, FRANKLIN</t>
+          <t>9200 W LOOMIS RD SUITE 210</t>
         </is>
       </c>
       <c r="O33" t="inlineStr"/>
@@ -2310,7 +2306,7 @@
       <c r="M34" t="inlineStr"/>
       <c r="N34" t="inlineStr">
         <is>
-          <t>9200 W LOOMIS RD SUITE 210</t>
+          <t>https://goo.gl/maps/PNn7y7HSYHT2</t>
         </is>
       </c>
       <c r="O34" t="inlineStr"/>
@@ -2363,11 +2359,7 @@
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
       <c r="M35" t="inlineStr"/>
-      <c r="N35" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/PNn7y7HSYHT2</t>
-        </is>
-      </c>
+      <c r="N35" t="inlineStr"/>
       <c r="O35" t="inlineStr"/>
       <c r="P35" t="inlineStr"/>
       <c r="Q35" t="inlineStr"/>
@@ -2413,9 +2405,21 @@
       </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr"/>
-      <c r="N36" t="inlineStr"/>
-      <c r="O36" t="inlineStr"/>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>Ian</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>Wht Camry available, Equip</t>
+        </is>
+      </c>
       <c r="P36" t="inlineStr"/>
       <c r="Q36" t="inlineStr">
         <is>
@@ -2460,21 +2464,9 @@
       </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="N37" t="inlineStr">
-        <is>
-          <t>Ian</t>
-        </is>
-      </c>
-      <c r="O37" t="inlineStr">
-        <is>
-          <t>Wht Camry available, Equip</t>
-        </is>
-      </c>
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="inlineStr"/>
+      <c r="O37" t="inlineStr"/>
       <c r="P37" t="inlineStr"/>
       <c r="Q37" t="inlineStr">
         <is>
@@ -2589,7 +2581,11 @@
       </c>
       <c r="L39" t="inlineStr"/>
       <c r="M39" t="inlineStr"/>
-      <c r="N39" t="inlineStr"/>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>5:30 AM START</t>
+        </is>
+      </c>
       <c r="O39" t="inlineStr"/>
       <c r="P39" t="inlineStr"/>
       <c r="Q39" t="inlineStr">
@@ -2647,7 +2643,7 @@
       <c r="M40" t="inlineStr"/>
       <c r="N40" t="inlineStr">
         <is>
-          <t>5:30 AM START</t>
+          <t xml:space="preserve">DC5-FINANCIAL  </t>
         </is>
       </c>
       <c r="O40" t="inlineStr"/>
@@ -2702,7 +2698,7 @@
       <c r="M41" t="inlineStr"/>
       <c r="N41" t="inlineStr">
         <is>
-          <t xml:space="preserve">DC5-FINANCIAL  </t>
+          <t>ROTE OIL #10 MUKWONAGO - ROCHESTER</t>
         </is>
       </c>
       <c r="O41" t="inlineStr"/>
@@ -2761,7 +2757,7 @@
       <c r="M42" t="inlineStr"/>
       <c r="N42" t="inlineStr">
         <is>
-          <t>ROTE OIL #10 MUKWONAGO - ROCHESTER</t>
+          <t>1060 N ROCHESTER ST</t>
         </is>
       </c>
       <c r="O42" t="inlineStr"/>
@@ -2824,7 +2820,7 @@
       <c r="M43" t="inlineStr"/>
       <c r="N43" t="inlineStr">
         <is>
-          <t>1060 N ROCHESTER ST</t>
+          <t>https://goo.gl/maps/dmvR5bTHLs1Cbjcr5</t>
         </is>
       </c>
       <c r="O43" t="inlineStr"/>
@@ -2887,7 +2883,7 @@
       <c r="M44" t="inlineStr"/>
       <c r="N44" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/dmvR5bTHLs1Cbjcr5</t>
+          <t>TO FOLLOW</t>
         </is>
       </c>
       <c r="O44" t="inlineStr"/>
@@ -2938,7 +2934,7 @@
       <c r="M45" t="inlineStr"/>
       <c r="N45" t="inlineStr">
         <is>
-          <t>TO FOLLOW</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="O45" t="inlineStr"/>
@@ -2989,7 +2985,7 @@
       <c r="M46" t="inlineStr"/>
       <c r="N46" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>ROTE OIL #12 MUKWONAGO - (AMOCO) GREENWALD</t>
         </is>
       </c>
       <c r="O46" t="inlineStr"/>
@@ -3044,7 +3040,7 @@
       <c r="M47" t="inlineStr"/>
       <c r="N47" t="inlineStr">
         <is>
-          <t>ROTE OIL #12 MUKWONAGO - (AMOCO) GREENWALD</t>
+          <t>909 GREENWALD CT</t>
         </is>
       </c>
       <c r="O47" t="inlineStr"/>
@@ -3087,7 +3083,7 @@
       <c r="M48" t="inlineStr"/>
       <c r="N48" t="inlineStr">
         <is>
-          <t>909 GREENWALD CT</t>
+          <t>https://goo.gl/maps/ejQSLoz2D8EmzKVq6</t>
         </is>
       </c>
       <c r="O48" t="inlineStr"/>
@@ -3130,7 +3126,7 @@
       <c r="M49" t="inlineStr"/>
       <c r="N49" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/ejQSLoz2D8EmzKVq6</t>
+          <t>TO FOLLOW</t>
         </is>
       </c>
       <c r="O49" t="inlineStr"/>
@@ -3173,7 +3169,7 @@
       <c r="M50" t="inlineStr"/>
       <c r="N50" t="inlineStr">
         <is>
-          <t>TO FOLLOW</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="O50" t="inlineStr"/>
@@ -3229,7 +3225,7 @@
       <c r="M51" t="inlineStr"/>
       <c r="N51" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>ROTE OIL  #11 MUKWONAGO - (BP) ARROWHEAD</t>
         </is>
       </c>
       <c r="O51" t="inlineStr"/>
@@ -3276,7 +3272,7 @@
       <c r="M52" t="inlineStr"/>
       <c r="N52" t="inlineStr">
         <is>
-          <t>ROTE OIL  #11 MUKWONAGO - (BP) ARROWHEAD</t>
+          <t>122 ARROWHEAD DR</t>
         </is>
       </c>
       <c r="O52" t="inlineStr"/>
@@ -3327,7 +3323,7 @@
       <c r="M53" t="inlineStr"/>
       <c r="N53" t="inlineStr">
         <is>
-          <t>122 ARROWHEAD DR</t>
+          <t>https://goo.gl/maps/7XkTFZtDFDgGBctz7</t>
         </is>
       </c>
       <c r="O53" t="inlineStr"/>
@@ -3360,11 +3356,7 @@
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
       <c r="M54" t="inlineStr"/>
-      <c r="N54" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/7XkTFZtDFDgGBctz7</t>
-        </is>
-      </c>
+      <c r="N54" t="inlineStr"/>
       <c r="O54" t="inlineStr"/>
       <c r="P54" t="inlineStr"/>
       <c r="Q54" t="inlineStr"/>
@@ -3414,9 +3406,21 @@
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="inlineStr"/>
-      <c r="N55" t="inlineStr"/>
-      <c r="O55" t="inlineStr"/>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>Optima available, Equip</t>
+        </is>
+      </c>
       <c r="P55" t="inlineStr"/>
       <c r="Q55" t="inlineStr"/>
       <c r="R55" t="inlineStr">
@@ -3455,19 +3459,15 @@
       <c r="L56" t="inlineStr"/>
       <c r="M56" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="O56" t="inlineStr">
-        <is>
-          <t>Optima available, Equip</t>
-        </is>
-      </c>
+          <t>Cynthia</t>
+        </is>
+      </c>
+      <c r="O56" t="inlineStr"/>
       <c r="P56" t="inlineStr"/>
       <c r="Q56" t="inlineStr"/>
       <c r="R56" t="inlineStr">
@@ -3504,16 +3504,8 @@
       </c>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="N57" t="inlineStr">
-        <is>
-          <t>Cynthia</t>
-        </is>
-      </c>
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="inlineStr"/>
       <c r="O57" t="inlineStr"/>
       <c r="P57" t="inlineStr"/>
       <c r="Q57" t="inlineStr"/>
@@ -3599,7 +3591,11 @@
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
       <c r="M59" t="inlineStr"/>
-      <c r="N59" t="inlineStr"/>
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>5:00 AM OFFICE MEET</t>
+        </is>
+      </c>
       <c r="O59" t="inlineStr"/>
       <c r="P59" t="inlineStr"/>
       <c r="Q59" t="inlineStr"/>
@@ -3640,7 +3636,7 @@
       <c r="M60" t="inlineStr"/>
       <c r="N60" t="inlineStr">
         <is>
-          <t>5:00 AM OFFICE MEET</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="O60" t="inlineStr"/>
@@ -3695,7 +3691,7 @@
       <c r="M61" t="inlineStr"/>
       <c r="N61" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>SCAN-ITEM LEVEL</t>
         </is>
       </c>
       <c r="O61" t="inlineStr"/>
@@ -3750,7 +3746,7 @@
       <c r="M62" t="inlineStr"/>
       <c r="N62" t="inlineStr">
         <is>
-          <t>SCAN-ITEM LEVEL</t>
+          <t>PICK #888 +RX, WATERTOWN</t>
         </is>
       </c>
       <c r="O62" t="inlineStr"/>
@@ -3793,7 +3789,7 @@
       <c r="M63" t="inlineStr"/>
       <c r="N63" t="inlineStr">
         <is>
-          <t>PICK #888 +RX, WATERTOWN</t>
+          <t>624 SOUTH CHURCH STREET</t>
         </is>
       </c>
       <c r="O63" t="inlineStr"/>
@@ -3832,7 +3828,7 @@
       <c r="M64" t="inlineStr"/>
       <c r="N64" t="inlineStr">
         <is>
-          <t>624 SOUTH CHURCH STREET</t>
+          <t>https://goo.gl/maps/tzx1UGc1dZ82</t>
         </is>
       </c>
       <c r="O64" t="inlineStr"/>
@@ -3885,11 +3881,7 @@
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
       <c r="M65" t="inlineStr"/>
-      <c r="N65" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/tzx1UGc1dZ82</t>
-        </is>
-      </c>
+      <c r="N65" t="inlineStr"/>
       <c r="O65" t="inlineStr"/>
       <c r="P65" t="inlineStr"/>
       <c r="Q65" t="inlineStr"/>
@@ -3940,9 +3932,21 @@
       </c>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
-      <c r="M66" t="inlineStr"/>
-      <c r="N66" t="inlineStr"/>
-      <c r="O66" t="inlineStr"/>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="N66" t="inlineStr">
+        <is>
+          <t>Bri</t>
+        </is>
+      </c>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="P66" t="inlineStr"/>
       <c r="Q66" t="inlineStr"/>
       <c r="R66" t="inlineStr"/>
@@ -3989,19 +3993,15 @@
       <c r="L67" t="inlineStr"/>
       <c r="M67" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>Bri</t>
-        </is>
-      </c>
-      <c r="O67" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+          <t>Celina</t>
+        </is>
+      </c>
+      <c r="O67" t="inlineStr"/>
       <c r="P67" t="inlineStr"/>
       <c r="Q67" t="inlineStr"/>
       <c r="R67" t="inlineStr"/>
@@ -4048,15 +4048,20 @@
       <c r="L68" t="inlineStr"/>
       <c r="M68" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>Celina</t>
-        </is>
-      </c>
-      <c r="O68" t="inlineStr"/>
+          <t>Jerry D</t>
+        </is>
+      </c>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>Driver,
+Santa Fe</t>
+        </is>
+      </c>
       <c r="P68" t="inlineStr"/>
       <c r="Q68" t="inlineStr"/>
       <c r="R68" t="inlineStr"/>
@@ -4069,7 +4074,7 @@
       </c>
       <c r="V68" t="inlineStr">
         <is>
-          <t>Ashley P</t>
+          <t>Emily L</t>
         </is>
       </c>
       <c r="W68" t="inlineStr">
@@ -4103,18 +4108,18 @@
       <c r="L69" t="inlineStr"/>
       <c r="M69" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>Angela</t>
         </is>
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>Driver,
-Santa Fe</t>
+          <t>@ Store,
+Rx</t>
         </is>
       </c>
       <c r="P69" t="inlineStr"/>
@@ -4129,7 +4134,7 @@
       </c>
       <c r="V69" t="inlineStr">
         <is>
-          <t>Emily L</t>
+          <t>Eva</t>
         </is>
       </c>
       <c r="W69" t="inlineStr">
@@ -4163,12 +4168,12 @@
       <c r="L70" t="inlineStr"/>
       <c r="M70" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>Angela</t>
+          <t>Eva</t>
         </is>
       </c>
       <c r="O70" t="inlineStr">
@@ -4189,7 +4194,7 @@
       </c>
       <c r="V70" t="inlineStr">
         <is>
-          <t>Eva</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="W70" t="inlineStr">
@@ -4219,18 +4224,17 @@
       <c r="L71" t="inlineStr"/>
       <c r="M71" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>Ashley P</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>@ Store,
-Supv Rx</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="P71" t="inlineStr"/>
@@ -4245,12 +4249,13 @@
       </c>
       <c r="V71" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Justin Lee</t>
         </is>
       </c>
       <c r="W71" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Until 9:00</t>
         </is>
       </c>
       <c r="X71" t="inlineStr"/>
@@ -4287,18 +4292,18 @@
       <c r="L72" t="inlineStr"/>
       <c r="M72" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t>Eva</t>
+          <t>Justin Lee</t>
         </is>
       </c>
       <c r="O72" t="inlineStr">
         <is>
           <t>@ Store,
-Rx</t>
+Supv Rx</t>
         </is>
       </c>
       <c r="P72" t="inlineStr"/>
@@ -4313,7 +4318,7 @@
       </c>
       <c r="V72" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
+          <t>Nate</t>
         </is>
       </c>
       <c r="W72" t="inlineStr">
@@ -4357,12 +4362,12 @@
       <c r="L73" t="inlineStr"/>
       <c r="M73" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Lori</t>
         </is>
       </c>
       <c r="O73" t="inlineStr">
@@ -4382,13 +4387,13 @@
       </c>
       <c r="V73" t="inlineStr">
         <is>
-          <t>Nate</t>
+          <t>Qiana</t>
         </is>
       </c>
       <c r="W73" t="inlineStr">
         <is>
           <t>@ Store,
-Until 9:00</t>
+Trainer</t>
         </is>
       </c>
       <c r="X73" t="inlineStr"/>
@@ -4421,12 +4426,12 @@
       <c r="L74" t="inlineStr"/>
       <c r="M74" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="N74" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
+          <t>Michael N</t>
         </is>
       </c>
       <c r="O74" t="inlineStr">
@@ -4439,22 +4444,9 @@
       <c r="R74" t="inlineStr"/>
       <c r="S74" t="inlineStr"/>
       <c r="T74" t="inlineStr"/>
-      <c r="U74" t="inlineStr">
-        <is>
-          <t>11)</t>
-        </is>
-      </c>
-      <c r="V74" t="inlineStr">
-        <is>
-          <t>Qiana</t>
-        </is>
-      </c>
-      <c r="W74" t="inlineStr">
-        <is>
-          <t>@ Store,
-Trainer</t>
-        </is>
-      </c>
+      <c r="U74" t="inlineStr"/>
+      <c r="V74" t="inlineStr"/>
+      <c r="W74" t="inlineStr"/>
       <c r="X74" t="inlineStr"/>
       <c r="Y74" t="inlineStr"/>
     </row>
@@ -4477,12 +4469,12 @@
       <c r="L75" t="inlineStr"/>
       <c r="M75" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t>Lori</t>
+          <t>Nate</t>
         </is>
       </c>
       <c r="O75" t="inlineStr">
@@ -4516,12 +4508,12 @@
       <c r="L76" t="inlineStr"/>
       <c r="M76" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="N76" t="inlineStr">
         <is>
-          <t>Michael N</t>
+          <t>Qiana</t>
         </is>
       </c>
       <c r="O76" t="inlineStr">
@@ -4571,12 +4563,12 @@
       <c r="L77" t="inlineStr"/>
       <c r="M77" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>12)</t>
         </is>
       </c>
       <c r="N77" t="inlineStr">
         <is>
-          <t>Nate</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="O77" t="inlineStr">
@@ -4624,21 +4616,9 @@
         </is>
       </c>
       <c r="L78" t="inlineStr"/>
-      <c r="M78" t="inlineStr">
-        <is>
-          <t>12)</t>
-        </is>
-      </c>
-      <c r="N78" t="inlineStr">
-        <is>
-          <t>Qiana</t>
-        </is>
-      </c>
-      <c r="O78" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="M78" t="inlineStr"/>
+      <c r="N78" t="inlineStr"/>
+      <c r="O78" t="inlineStr"/>
       <c r="P78" t="inlineStr"/>
       <c r="Q78" t="inlineStr"/>
       <c r="R78" t="inlineStr"/>
@@ -4667,21 +4647,9 @@
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
-      <c r="M79" t="inlineStr">
-        <is>
-          <t>13)</t>
-        </is>
-      </c>
-      <c r="N79" t="inlineStr">
-        <is>
-          <t>Sarah</t>
-        </is>
-      </c>
-      <c r="O79" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="M79" t="inlineStr"/>
+      <c r="N79" t="inlineStr"/>
+      <c r="O79" t="inlineStr"/>
       <c r="P79" t="inlineStr"/>
       <c r="Q79" t="inlineStr"/>
       <c r="R79" t="inlineStr"/>

--- a/02-22-26 to 02-28-26 Milwaukee Schedule.xlsx
+++ b/02-22-26 to 02-28-26 Milwaukee Schedule.xlsx
@@ -1781,11 +1781,7 @@
           <t>Paul</t>
         </is>
       </c>
-      <c r="O24" t="inlineStr">
-        <is>
-          <t>Until 11:30</t>
-        </is>
-      </c>
+      <c r="O24" t="inlineStr"/>
       <c r="P24" t="inlineStr"/>
       <c r="Q24" t="inlineStr">
         <is>

--- a/02-22-26 to 02-28-26 Milwaukee Schedule.xlsx
+++ b/02-22-26 to 02-28-26 Milwaukee Schedule.xlsx
@@ -1274,13 +1274,13 @@
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>Carlie</t>
+          <t>Andrew</t>
         </is>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>w/ Sonia - from Grafton,
-Trainer</t>
+          <t>@ Store, 
+w/ DJ</t>
         </is>
       </c>
       <c r="T17" t="inlineStr"/>
@@ -1350,10 +1350,15 @@
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>Cynthia</t>
-        </is>
-      </c>
-      <c r="S18" t="inlineStr"/>
+          <t>Carlie</t>
+        </is>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>w/ Sonia - from Grafton,
+Trainer</t>
+        </is>
+      </c>
       <c r="T18" t="inlineStr"/>
       <c r="U18" t="inlineStr">
         <is>
@@ -1431,15 +1436,10 @@
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>Greg</t>
-        </is>
-      </c>
-      <c r="S19" t="inlineStr">
-        <is>
-          <t>Driver,
-Optima</t>
-        </is>
-      </c>
+          <t>Cynthia</t>
+        </is>
+      </c>
+      <c r="S19" t="inlineStr"/>
       <c r="T19" t="inlineStr"/>
       <c r="U19" t="inlineStr">
         <is>
@@ -1515,14 +1515,13 @@
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>Ian</t>
+          <t>Greg</t>
         </is>
       </c>
       <c r="S20" t="inlineStr">
         <is>
           <t>Driver,
-Wht Camry,
-Trainer</t>
+Optima</t>
         </is>
       </c>
       <c r="T20" t="inlineStr"/>
@@ -1596,10 +1595,16 @@
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="S21" t="inlineStr"/>
+          <t>Ian</t>
+        </is>
+      </c>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>Driver,
+Wht Camry,
+Trainer</t>
+        </is>
+      </c>
       <c r="T21" t="inlineStr"/>
       <c r="U21" t="inlineStr">
         <is>
@@ -1659,12 +1664,13 @@
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>Mariah</t>
+          <t>Leyna</t>
         </is>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>work w/ Carlie</t>
+          <t>@ Store, 
+w/ DJ</t>
         </is>
       </c>
       <c r="T22" t="inlineStr"/>
@@ -1731,12 +1737,12 @@
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>Matthew</t>
+          <t>Mariah</t>
         </is>
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>work w/ Ian</t>
+          <t>work w/ Carlie</t>
         </is>
       </c>
       <c r="T23" t="inlineStr"/>
@@ -1790,10 +1796,14 @@
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>Monica</t>
-        </is>
-      </c>
-      <c r="S24" t="inlineStr"/>
+          <t>Matthew</t>
+        </is>
+      </c>
+      <c r="S24" t="inlineStr">
+        <is>
+          <t>work w/ Ian</t>
+        </is>
+      </c>
       <c r="T24" t="inlineStr"/>
       <c r="U24" t="inlineStr">
         <is>
@@ -1845,14 +1855,10 @@
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>Sonia</t>
-        </is>
-      </c>
-      <c r="S25" t="inlineStr">
-        <is>
-          <t>w/ Carlie - from Grafton</t>
-        </is>
-      </c>
+          <t>Monica</t>
+        </is>
+      </c>
+      <c r="S25" t="inlineStr"/>
       <c r="T25" t="inlineStr"/>
       <c r="U25" t="inlineStr">
         <is>
@@ -1908,10 +1914,14 @@
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>Zakiyah</t>
-        </is>
-      </c>
-      <c r="S26" t="inlineStr"/>
+          <t>Sonia</t>
+        </is>
+      </c>
+      <c r="S26" t="inlineStr">
+        <is>
+          <t>w/ Carlie - from Grafton</t>
+        </is>
+      </c>
       <c r="T26" t="inlineStr"/>
       <c r="U26" t="inlineStr">
         <is>
@@ -2471,7 +2481,7 @@
       </c>
       <c r="R37" t="inlineStr">
         <is>
-          <t>Andrew</t>
+          <t>Celina</t>
         </is>
       </c>
       <c r="S37" t="inlineStr"/>
@@ -2527,10 +2537,15 @@
       </c>
       <c r="R38" t="inlineStr">
         <is>
-          <t>Celina</t>
-        </is>
-      </c>
-      <c r="S38" t="inlineStr"/>
+          <t>Jerry D</t>
+        </is>
+      </c>
+      <c r="S38" t="inlineStr">
+        <is>
+          <t>Driver,
+Red Van</t>
+        </is>
+      </c>
       <c r="T38" t="inlineStr"/>
       <c r="U38" t="inlineStr">
         <is>
@@ -2591,15 +2606,10 @@
       </c>
       <c r="R39" t="inlineStr">
         <is>
-          <t>Jerry D</t>
-        </is>
-      </c>
-      <c r="S39" t="inlineStr">
-        <is>
-          <t>Driver,
-Red Van</t>
-        </is>
-      </c>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="S39" t="inlineStr"/>
       <c r="T39" t="inlineStr"/>
       <c r="U39" t="inlineStr"/>
       <c r="V39" t="inlineStr"/>
@@ -2651,7 +2661,7 @@
       </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>Leyna</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="S40" t="inlineStr"/>
@@ -2706,7 +2716,7 @@
       </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Zakiyah</t>
         </is>
       </c>
       <c r="S41" t="inlineStr"/>

--- a/02-22-26 to 02-28-26 Milwaukee Schedule.xlsx
+++ b/02-22-26 to 02-28-26 Milwaukee Schedule.xlsx
@@ -1277,12 +1277,7 @@
           <t>Andrew</t>
         </is>
       </c>
-      <c r="S17" t="inlineStr">
-        <is>
-          <t>@ Store, 
-w/ DJ</t>
-        </is>
-      </c>
+      <c r="S17" t="inlineStr"/>
       <c r="T17" t="inlineStr"/>
       <c r="U17" t="inlineStr">
         <is>
@@ -1667,12 +1662,7 @@
           <t>Leyna</t>
         </is>
       </c>
-      <c r="S22" t="inlineStr">
-        <is>
-          <t>@ Store, 
-w/ DJ</t>
-        </is>
-      </c>
+      <c r="S22" t="inlineStr"/>
       <c r="T22" t="inlineStr"/>
       <c r="U22" t="inlineStr">
         <is>
